--- a/uCT+compression_(razem)/Zbiorczo (version 1) (Autosaved).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1) (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="6840" windowWidth="23895" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10335" yWindow="7440" windowWidth="23895" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Porosity</t>
   </si>
@@ -135,13 +135,17 @@
   <si>
     <t>K01LA</t>
   </si>
+  <si>
+    <t>Density</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -325,7 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -364,13 +368,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,11 +976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93444720"/>
-        <c:axId val="93436016"/>
+        <c:axId val="-164582992"/>
+        <c:axId val="-164597680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93444720"/>
+        <c:axId val="-164582992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,12 +1009,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93436016"/>
+        <c:crossAx val="-164597680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93436016"/>
+        <c:axId val="-164597680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1049,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93444720"/>
+        <c:crossAx val="-164582992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1487,11 +1495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93437104"/>
-        <c:axId val="93446352"/>
+        <c:axId val="43432896"/>
+        <c:axId val="43433440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93437104"/>
+        <c:axId val="43432896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,12 +1528,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93446352"/>
+        <c:crossAx val="43433440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93446352"/>
+        <c:axId val="43433440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1568,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93437104"/>
+        <c:crossAx val="43432896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2668,11 +2676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93439280"/>
-        <c:axId val="93440368"/>
+        <c:axId val="-164799616"/>
+        <c:axId val="-164804512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93439280"/>
+        <c:axId val="-164799616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2702,12 +2710,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93440368"/>
+        <c:crossAx val="-164804512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93440368"/>
+        <c:axId val="-164804512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2737,7 +2745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93439280"/>
+        <c:crossAx val="-164799616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3025,11 +3033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="93442000"/>
-        <c:axId val="93445808"/>
+        <c:axId val="89013664"/>
+        <c:axId val="89006048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93442000"/>
+        <c:axId val="89013664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -3040,12 +3048,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93445808"/>
+        <c:crossAx val="89006048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93445808"/>
+        <c:axId val="89006048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800"/>
@@ -3057,7 +3065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93442000"/>
+        <c:crossAx val="89013664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3345,11 +3353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2030837360"/>
-        <c:axId val="2030827568"/>
+        <c:axId val="89015296"/>
+        <c:axId val="89015840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2030837360"/>
+        <c:axId val="89015296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3359,12 +3367,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2030827568"/>
+        <c:crossAx val="89015840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2030827568"/>
+        <c:axId val="89015840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -3376,7 +3384,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2030837360"/>
+        <c:crossAx val="89015296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3595,7 +3603,7 @@
             <c:numRef>
               <c:f>Sheet2!$G$2:$G$36</c:f>
               <c:numCache>
-                <c:formatCode>0\.000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.173816</c:v>
@@ -4324,7 +4332,7 @@
             <c:numRef>
               <c:f>Sheet2!$I$2:$I$36</c:f>
               <c:numCache>
-                <c:formatCode>0\.000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.20400000000000007</c:v>
@@ -4558,11 +4566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2030832464"/>
-        <c:axId val="2030833008"/>
+        <c:axId val="89004416"/>
+        <c:axId val="89004960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2030832464"/>
+        <c:axId val="89004416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -4620,12 +4628,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030833008"/>
+        <c:crossAx val="89004960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2030833008"/>
+        <c:axId val="89004960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -4646,7 +4654,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0\.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4683,7 +4691,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2030832464"/>
+        <c:crossAx val="89004416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5324,16 +5332,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>35214</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>172605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>592859</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>83705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5834,8 +5842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5875,6 +5883,9 @@
       <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
@@ -5912,6 +5923,10 @@
       <c r="J2" s="1">
         <v>1</v>
       </c>
+      <c r="K2">
+        <f>H2*3.047</f>
+        <v>0.62463499999999994</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -5949,6 +5964,10 @@
       <c r="J3" s="1">
         <v>2</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K36" si="3">H3*3.047</f>
+        <v>0.62158800000000003</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
@@ -5986,6 +6005,10 @@
       <c r="J4" s="1">
         <v>3</v>
       </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0.61854100000000012</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
@@ -6023,6 +6046,10 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.98418100000000008</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
@@ -6060,6 +6087,10 @@
       <c r="J6" s="1">
         <v>2</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.99636900000000006</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -6097,6 +6128,10 @@
       <c r="J7" s="1">
         <v>3</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.99941600000000008</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -6134,6 +6169,10 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.35649900000000007</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
@@ -6171,6 +6210,10 @@
       <c r="J9" s="1">
         <v>2</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.37478100000000003</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
@@ -6208,6 +6251,10 @@
       <c r="J10" s="1">
         <v>3</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.34126400000000001</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
@@ -6245,6 +6292,10 @@
       <c r="J11" s="1">
         <v>2</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.92019400000000007</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
@@ -6282,6 +6333,10 @@
       <c r="J12" s="1">
         <v>3</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0.91714700000000005</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
@@ -6319,6 +6374,10 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>1.081685</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
@@ -6356,6 +6415,10 @@
       <c r="J14" s="1">
         <v>2</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>1.0664499999999999</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
@@ -6393,6 +6456,10 @@
       <c r="J15" s="1">
         <v>3</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>1.078638</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
@@ -6430,6 +6497,10 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0.49361400000000005</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
@@ -6467,6 +6538,10 @@
       <c r="J17" s="1">
         <v>2</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.50580200000000008</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
@@ -6504,6 +6579,10 @@
       <c r="J18" s="1">
         <v>3</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0.49666100000000002</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
@@ -6541,6 +6620,10 @@
       <c r="J19" s="1">
         <v>1</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0.80745500000000003</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
@@ -6578,6 +6661,10 @@
       <c r="J20" s="1">
         <v>2</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.81354900000000008</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
@@ -6615,6 +6702,10 @@
       <c r="J21" s="1">
         <v>3</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0.81050200000000006</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
@@ -6652,6 +6743,10 @@
       <c r="J22" s="1">
         <v>1</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>1.139578</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
@@ -6689,6 +6784,10 @@
       <c r="J23" s="1">
         <v>2</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>1.142625</v>
+      </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
@@ -6726,6 +6825,10 @@
       <c r="J24" s="1">
         <v>3</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>1.136531</v>
+      </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
@@ -6763,6 +6866,10 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.47228500000000001</v>
+      </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
@@ -6800,6 +6907,10 @@
       <c r="J26" s="1">
         <v>2</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.47533200000000003</v>
+      </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
@@ -6837,6 +6948,10 @@
       <c r="J27" s="1">
         <v>3</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.463144</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
@@ -6874,6 +6989,10 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>1.0146510000000002</v>
+      </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
@@ -6911,6 +7030,10 @@
       <c r="J29" s="1">
         <v>2</v>
       </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>1.020745</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
@@ -6948,6 +7071,10 @@
       <c r="J30" s="1">
         <v>3</v>
       </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>1.023792</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
@@ -6985,6 +7112,10 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0.92324099999999998</v>
+      </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
@@ -7022,6 +7153,10 @@
       <c r="J32" s="1">
         <v>2</v>
       </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0.93542900000000007</v>
+      </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
@@ -7059,6 +7194,10 @@
       <c r="J33" s="1">
         <v>3</v>
       </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>0.93238200000000004</v>
+      </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
@@ -7096,6 +7235,10 @@
       <c r="J34" s="1">
         <v>1</v>
       </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.478379</v>
+      </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
@@ -7133,6 +7276,10 @@
       <c r="J35" s="1">
         <v>2</v>
       </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.50275500000000006</v>
+      </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
@@ -7169,6 +7316,10 @@
       </c>
       <c r="J36" s="1">
         <v>3</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>0.49361400000000005</v>
       </c>
     </row>
   </sheetData>
@@ -7182,11 +7333,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="8" width="9" style="17"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -7207,10 +7361,10 @@
       <c r="F1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -7246,10 +7400,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>1-J2</f>
+        <f t="shared" ref="A2:A36" si="0">1-J2</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <f>AVERAGE(A2:A4)</f>
         <v>0.79599999999999993</v>
       </c>
@@ -7266,14 +7420,14 @@
         <v>29.39123</v>
       </c>
       <c r="G2" s="16">
-        <f t="shared" ref="G2:H36" si="0">E2*10^(-3)</f>
+        <f t="shared" ref="G2:H36" si="1">E2*10^(-3)</f>
         <v>0.173816</v>
       </c>
       <c r="H2" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9391230000000001E-2</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="14">
         <f>1-B2</f>
         <v>0.20400000000000007</v>
       </c>
@@ -7315,10 +7469,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>1-J3</f>
+        <f t="shared" si="0"/>
         <v>0.79600000000000004</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <f>AVERAGE(A2:A4)</f>
         <v>0.79599999999999993</v>
       </c>
@@ -7335,15 +7489,15 @@
         <v>33.251390000000001</v>
       </c>
       <c r="G3" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.218864</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3251389999999999E-2</v>
       </c>
-      <c r="I3" s="16">
-        <f t="shared" ref="I3:I59" si="1">1-B3</f>
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I59" si="2">1-B3</f>
         <v>0.20400000000000007</v>
       </c>
       <c r="J3" s="8">
@@ -7368,11 +7522,11 @@
         <v>2.0483100000000001E-2</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="P3:Q59" si="2">M3/1000</f>
+        <f t="shared" ref="P3:Q59" si="3">M3/1000</f>
         <v>0.66223199999999993</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="Q3:R59" si="3">N3/1000</f>
+        <f t="shared" ref="Q3:R59" si="4">N3/1000</f>
         <v>0.10040479999999999</v>
       </c>
       <c r="S3" s="10">
@@ -7384,10 +7538,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>1-J4</f>
+        <f t="shared" si="0"/>
         <v>0.79699999999999993</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <f>AVERAGE(A2:A4)</f>
         <v>0.79599999999999993</v>
       </c>
@@ -7404,15 +7558,15 @@
         <v>29.75798</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.164516</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.975798E-2</v>
       </c>
-      <c r="I4" s="16">
-        <f t="shared" si="1"/>
+      <c r="I4" s="14">
+        <f t="shared" si="2"/>
         <v>0.20400000000000007</v>
       </c>
       <c r="J4" s="8">
@@ -7437,11 +7591,11 @@
         <v>1.9372500000000001E-2</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.522366</v>
       </c>
       <c r="R4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.449231000000001E-2</v>
       </c>
       <c r="S4" s="10">
@@ -7453,10 +7607,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>1-J5</f>
+        <f t="shared" si="0"/>
         <v>0.67700000000000005</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <f>AVERAGE(A5:A7)</f>
         <v>0.67400000000000004</v>
       </c>
@@ -7473,15 +7627,15 @@
         <v>21.814129999999999</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19563</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1814129999999998E-2</v>
       </c>
-      <c r="I5" s="16">
-        <f t="shared" si="1"/>
+      <c r="I5" s="14">
+        <f t="shared" si="2"/>
         <v>0.32599999999999996</v>
       </c>
       <c r="J5" s="8">
@@ -7506,11 +7660,11 @@
         <v>1.29271E-2</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35783670000000001</v>
       </c>
       <c r="R5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9896380000000002E-2</v>
       </c>
       <c r="S5" s="10">
@@ -7522,10 +7676,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>1-J6</f>
+        <f t="shared" si="0"/>
         <v>0.67300000000000004</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>0.67400000000000004</v>
       </c>
       <c r="C6" s="13">
@@ -7541,15 +7695,15 @@
         <v>10.20697</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24043500000000001</v>
       </c>
       <c r="H6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0206970000000001E-2</v>
       </c>
-      <c r="I6" s="16">
-        <f t="shared" si="1"/>
+      <c r="I6" s="14">
+        <f t="shared" si="2"/>
         <v>0.32599999999999996</v>
       </c>
       <c r="J6" s="8">
@@ -7574,11 +7728,11 @@
         <v>6.1291000000000002E-3</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42591500000000004</v>
       </c>
       <c r="R6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8082210000000001E-2</v>
       </c>
       <c r="S6" s="10">
@@ -7590,10 +7744,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>1-J7</f>
+        <f t="shared" si="0"/>
         <v>0.67199999999999993</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>0.67400000000000004</v>
       </c>
       <c r="C7" s="13">
@@ -7609,15 +7763,15 @@
         <v>15.54012</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17027330000000002</v>
       </c>
       <c r="H7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5540120000000001E-2</v>
       </c>
-      <c r="I7" s="16">
-        <f t="shared" si="1"/>
+      <c r="I7" s="14">
+        <f t="shared" si="2"/>
         <v>0.32599999999999996</v>
       </c>
       <c r="J7" s="8">
@@ -7642,11 +7796,11 @@
         <v>9.6501E-3</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.31287999999999999</v>
       </c>
       <c r="R7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8551159999999999E-2</v>
       </c>
       <c r="S7" s="10">
@@ -7658,10 +7812,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>1-J8</f>
+        <f t="shared" si="0"/>
         <v>0.88300000000000001</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <f>AVERAGE(A8:A10)</f>
         <v>0.88266666666666671</v>
       </c>
@@ -7678,15 +7832,15 @@
         <v>12.17266</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6668499999999991E-2</v>
       </c>
       <c r="H8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.217266E-2</v>
       </c>
-      <c r="I8" s="16">
-        <f t="shared" si="1"/>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
         <v>0.11733333333333329</v>
       </c>
       <c r="J8" s="8">
@@ -7711,11 +7865,11 @@
         <v>8.8190000000000004E-3</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59855499999999995</v>
       </c>
       <c r="R8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5376929999999995E-2</v>
       </c>
       <c r="S8" s="10">
@@ -7727,10 +7881,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>1-J9</f>
+        <f t="shared" si="0"/>
         <v>0.877</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <f>AVERAGE(A8:A10)</f>
         <v>0.88266666666666671</v>
       </c>
@@ -7747,15 +7901,15 @@
         <v>3.3935339999999998</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.151645</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3935339999999997E-3</v>
       </c>
-      <c r="I9" s="16">
-        <f t="shared" si="1"/>
+      <c r="I9" s="14">
+        <f t="shared" si="2"/>
         <v>0.11733333333333329</v>
       </c>
       <c r="J9" s="8">
@@ -7780,11 +7934,11 @@
         <v>2.3295E-3</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.854495</v>
       </c>
       <c r="R9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.909684E-2</v>
       </c>
       <c r="S9" s="10">
@@ -7796,10 +7950,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>1-J10</f>
+        <f t="shared" si="0"/>
         <v>0.88800000000000001</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <f>AVERAGE(A8:A10)</f>
         <v>0.88266666666666671</v>
       </c>
@@ -7816,15 +7970,15 @@
         <v>26.55856</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1081165</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6558560000000002E-2</v>
       </c>
-      <c r="I10" s="16">
-        <f t="shared" si="1"/>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
         <v>0.11733333333333329</v>
       </c>
       <c r="J10" s="8">
@@ -7849,11 +8003,11 @@
         <v>6.9801999999999998E-3</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.64074749999999991</v>
       </c>
       <c r="R10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9659120000000003E-2</v>
       </c>
       <c r="S10" s="10">
@@ -7865,10 +8019,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>1-J11</f>
+        <f t="shared" si="0"/>
         <v>0.69799999999999995</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <f>AVERAGE(A11:A12)</f>
         <v>0.69850000000000001</v>
       </c>
@@ -7885,15 +8039,15 @@
         <v>15.31302</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25029200000000001</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.531302E-2</v>
       </c>
-      <c r="I11" s="16">
-        <f t="shared" si="1"/>
+      <c r="I11" s="14">
+        <f t="shared" si="2"/>
         <v>0.30149999999999999</v>
       </c>
       <c r="J11" s="8">
@@ -7918,11 +8072,11 @@
         <v>8.6663E-3</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46745600000000004</v>
       </c>
       <c r="R11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8599679999999999E-2</v>
       </c>
       <c r="S11" s="10">
@@ -7934,10 +8088,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>1-J12</f>
+        <f t="shared" si="0"/>
         <v>0.69900000000000007</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <f>AVERAGE(A11:A12)</f>
         <v>0.69850000000000001</v>
       </c>
@@ -7954,15 +8108,15 @@
         <v>19.200479999999999</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2365283</v>
       </c>
       <c r="H12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9200479999999999E-2</v>
       </c>
-      <c r="I12" s="16">
-        <f t="shared" si="1"/>
+      <c r="I12" s="14">
+        <f t="shared" si="2"/>
         <v>0.30149999999999999</v>
       </c>
       <c r="J12" s="8">
@@ -7987,11 +8141,11 @@
         <v>8.4776000000000001E-3</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47727170000000002</v>
       </c>
       <c r="R12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8750019999999996E-2</v>
       </c>
       <c r="S12" s="10">
@@ -8003,10 +8157,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>1-J13</f>
+        <f t="shared" si="0"/>
         <v>0.64500000000000002</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <f>AVERAGE(A13:A15)</f>
         <v>0.64699999999999991</v>
       </c>
@@ -8023,15 +8177,15 @@
         <v>11.99095</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25801400000000002</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.199095E-2</v>
       </c>
-      <c r="I13" s="16">
-        <f t="shared" si="1"/>
+      <c r="I13" s="14">
+        <f t="shared" si="2"/>
         <v>0.35300000000000009</v>
       </c>
       <c r="J13" s="8">
@@ -8056,11 +8210,11 @@
         <v>7.1643999999999996E-3</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43423800000000001</v>
       </c>
       <c r="R13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0183019999999999E-2</v>
       </c>
       <c r="S13" s="10">
@@ -8072,10 +8226,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>1-J14</f>
+        <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <f>AVERAGE(A13:A15)</f>
         <v>0.64699999999999991</v>
       </c>
@@ -8092,15 +8246,15 @@
         <v>6.2474850000000002</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29362250000000001</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2474850000000005E-3</v>
       </c>
-      <c r="I14" s="16">
-        <f t="shared" si="1"/>
+      <c r="I14" s="14">
+        <f t="shared" si="2"/>
         <v>0.35300000000000009</v>
       </c>
       <c r="J14" s="8">
@@ -8125,11 +8279,11 @@
         <v>3.1227999999999998E-3</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4192475</v>
       </c>
       <c r="R14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9215680000000012E-3</v>
       </c>
       <c r="S14" s="10">
@@ -8141,10 +8295,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>1-J15</f>
+        <f t="shared" si="0"/>
         <v>0.64600000000000002</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <f>AVERAGE(A13:A15)</f>
         <v>0.64699999999999991</v>
       </c>
@@ -8161,15 +8315,15 @@
         <v>4.4636329999999997</v>
       </c>
       <c r="G15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24187330000000001</v>
       </c>
       <c r="H15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4636329999999998E-3</v>
       </c>
-      <c r="I15" s="16">
-        <f t="shared" si="1"/>
+      <c r="I15" s="14">
+        <f t="shared" si="2"/>
         <v>0.35300000000000009</v>
       </c>
       <c r="J15" s="8">
@@ -8194,11 +8348,11 @@
         <v>2.6619E-3</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40694999999999998</v>
       </c>
       <c r="R15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.5146040000000002E-3</v>
       </c>
       <c r="S15" s="10">
@@ -8210,10 +8364,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f>1-J16</f>
+        <f t="shared" si="0"/>
         <v>0.83799999999999997</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <f>AVERAGE(A16:A18)</f>
         <v>0.83633333333333326</v>
       </c>
@@ -8230,15 +8384,15 @@
         <v>5.4984650000000004</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19849749999999999</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4984650000000001E-3</v>
       </c>
-      <c r="I16" s="16">
-        <f t="shared" si="1"/>
+      <c r="I16" s="14">
+        <f t="shared" si="2"/>
         <v>0.16366666666666674</v>
       </c>
       <c r="J16" s="8">
@@ -8263,11 +8417,11 @@
         <v>3.3132000000000001E-3</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73824000000000001</v>
       </c>
       <c r="R16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.045017E-2</v>
       </c>
       <c r="S16" s="10">
@@ -8279,10 +8433,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f>1-J17</f>
+        <f t="shared" si="0"/>
         <v>0.83399999999999996</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <f>AVERAGE(A16:A18)</f>
         <v>0.83633333333333326</v>
       </c>
@@ -8299,15 +8453,15 @@
         <v>8.0007260000000002</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12983330000000001</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0007259999999997E-3</v>
       </c>
-      <c r="I17" s="16">
-        <f t="shared" si="1"/>
+      <c r="I17" s="14">
+        <f t="shared" si="2"/>
         <v>0.16366666666666674</v>
       </c>
       <c r="J17" s="8">
@@ -8332,11 +8486,11 @@
         <v>2.9108000000000003E-3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4980733</v>
       </c>
       <c r="R17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1414209999999998E-2</v>
       </c>
       <c r="S17" s="10">
@@ -8348,10 +8502,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f>1-J18</f>
+        <f t="shared" si="0"/>
         <v>0.83699999999999997</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <f>AVERAGE(A16:A18)</f>
         <v>0.83633333333333326</v>
       </c>
@@ -8368,15 +8522,15 @@
         <v>8.5251400000000004</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.106823</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5251400000000005E-3</v>
       </c>
-      <c r="I18" s="16">
-        <f t="shared" si="1"/>
+      <c r="I18" s="14">
+        <f t="shared" si="2"/>
         <v>0.16366666666666674</v>
       </c>
       <c r="J18" s="8">
@@ -8401,11 +8555,11 @@
         <v>4.9484000000000004E-3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42486499999999999</v>
       </c>
       <c r="R18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3910139999999998E-2</v>
       </c>
       <c r="S18" s="10">
@@ -8417,10 +8571,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f>1-J19</f>
+        <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <f>AVERAGE(A19:A21)</f>
         <v>0.73399999999999999</v>
       </c>
@@ -8437,15 +8591,15 @@
         <v>11.536899999999999</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16642699999999999</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1536899999999999E-2</v>
       </c>
-      <c r="I19" s="16">
-        <f t="shared" si="1"/>
+      <c r="I19" s="14">
+        <f t="shared" si="2"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="J19" s="8">
@@ -8470,11 +8624,11 @@
         <v>7.2104000000000005E-3</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.39555299999999999</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7423699999999999E-2</v>
       </c>
       <c r="S19" s="10">
@@ -8486,10 +8640,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f>1-J20</f>
+        <f t="shared" si="0"/>
         <v>0.73299999999999998</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <f>AVERAGE(A19:A21)</f>
         <v>0.73399999999999999</v>
       </c>
@@ -8506,15 +8660,15 @@
         <v>1.7046300000000001</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20024700000000001</v>
       </c>
       <c r="H20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7046300000000002E-3</v>
       </c>
-      <c r="I20" s="16">
-        <f t="shared" si="1"/>
+      <c r="I20" s="14">
+        <f t="shared" si="2"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="J20" s="8">
@@ -8539,11 +8693,11 @@
         <v>1.0219000000000001E-3</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44973000000000002</v>
       </c>
       <c r="R20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8263300000000002E-3</v>
       </c>
       <c r="S20" s="10">
@@ -8555,10 +8709,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f>1-J21</f>
+        <f t="shared" si="0"/>
         <v>0.73399999999999999</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <f>AVERAGE(A19:A21)</f>
         <v>0.73399999999999999</v>
       </c>
@@ -8575,15 +8729,15 @@
         <v>8.2196529999999992</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18700330000000001</v>
       </c>
       <c r="H21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2196529999999986E-3</v>
       </c>
-      <c r="I21" s="16">
-        <f t="shared" si="1"/>
+      <c r="I21" s="14">
+        <f t="shared" si="2"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="J21" s="8">
@@ -8608,11 +8762,11 @@
         <v>8.238500000000001E-3</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47941329999999999</v>
       </c>
       <c r="R21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0750309999999999E-2</v>
       </c>
       <c r="S21" s="10">
@@ -8624,10 +8778,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>1-J22</f>
+        <f t="shared" si="0"/>
         <v>0.626</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <f>AVERAGE(A22:A24)</f>
         <v>0.626</v>
       </c>
@@ -8644,15 +8798,15 @@
         <v>8.3042400000000001</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.269063</v>
       </c>
       <c r="H22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3042400000000009E-3</v>
       </c>
-      <c r="I22" s="16">
-        <f t="shared" si="1"/>
+      <c r="I22" s="14">
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="J22" s="8">
@@ -8677,11 +8831,11 @@
         <v>4.8127000000000005E-3</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40591000000000005</v>
       </c>
       <c r="R22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="S22" s="10">
@@ -8693,10 +8847,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f>1-J23</f>
+        <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <f>AVERAGE(A22:A24)</f>
         <v>0.626</v>
       </c>
@@ -8713,15 +8867,15 @@
         <v>3.6185499999999999</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.224693</v>
       </c>
       <c r="H23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6185499999999999E-3</v>
       </c>
-      <c r="I23" s="16">
-        <f t="shared" si="1"/>
+      <c r="I23" s="14">
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="J23" s="8">
@@ -8746,11 +8900,11 @@
         <v>2.1063000000000002E-3</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34873000000000004</v>
       </c>
       <c r="R23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.6122400000000001E-3</v>
       </c>
       <c r="S23" s="10">
@@ -8762,10 +8916,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f>1-J24</f>
+        <f t="shared" si="0"/>
         <v>0.627</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <f>AVERAGE(A22:A24)</f>
         <v>0.626</v>
       </c>
@@ -8782,15 +8936,15 @@
         <v>9.9321959999999994</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23794499999999999</v>
       </c>
       <c r="H24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.932195999999999E-3</v>
       </c>
-      <c r="I24" s="16">
-        <f t="shared" si="1"/>
+      <c r="I24" s="14">
+        <f t="shared" si="2"/>
         <v>0.374</v>
       </c>
       <c r="J24" s="8">
@@ -8815,11 +8969,11 @@
         <v>6.0113000000000007E-3</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.40229500000000001</v>
       </c>
       <c r="R24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.616126E-2</v>
       </c>
       <c r="S24" s="10">
@@ -8831,10 +8985,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f>1-J25</f>
+        <f t="shared" si="0"/>
         <v>0.84499999999999997</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <f>AVERAGE(A25:A27)</f>
         <v>0.84566666666666668</v>
       </c>
@@ -8851,15 +9005,15 @@
         <v>6.9632430000000003</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8322670000000001E-2</v>
       </c>
       <c r="H25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.963243E-3</v>
       </c>
-      <c r="I25" s="16">
-        <f t="shared" si="1"/>
+      <c r="I25" s="14">
+        <f t="shared" si="2"/>
         <v>0.15433333333333332</v>
       </c>
       <c r="J25" s="8">
@@ -8884,11 +9038,11 @@
         <v>4.6601999999999998E-3</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4246067</v>
       </c>
       <c r="R25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0065339999999999E-2</v>
       </c>
       <c r="S25" s="10">
@@ -8900,10 +9054,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f>1-J26</f>
+        <f t="shared" si="0"/>
         <v>0.84399999999999997</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <f>AVERAGE(A25:A27)</f>
         <v>0.84566666666666668</v>
       </c>
@@ -8920,15 +9074,15 @@
         <v>11.7705</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.120077</v>
       </c>
       <c r="H26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.17705E-2</v>
       </c>
-      <c r="I26" s="16">
-        <f t="shared" si="1"/>
+      <c r="I26" s="14">
+        <f t="shared" si="2"/>
         <v>0.15433333333333332</v>
       </c>
       <c r="J26" s="8">
@@ -8953,11 +9107,11 @@
         <v>7.8902999999999994E-3</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52609299999999992</v>
       </c>
       <c r="R26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1567700000000001E-2</v>
       </c>
       <c r="S26" s="10">
@@ -8969,10 +9123,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f>1-J27</f>
+        <f t="shared" si="0"/>
         <v>0.84799999999999998</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <f>AVERAGE(A25:A27)</f>
         <v>0.84566666666666668</v>
       </c>
@@ -8989,15 +9143,15 @@
         <v>2.6170300000000002</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1386</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6170300000000002E-3</v>
       </c>
-      <c r="I27" s="16">
-        <f t="shared" si="1"/>
+      <c r="I27" s="14">
+        <f t="shared" si="2"/>
         <v>0.15433333333333332</v>
       </c>
       <c r="J27" s="8">
@@ -9022,11 +9176,11 @@
         <v>1.7384599999999998E-3</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58952700000000002</v>
       </c>
       <c r="R27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1145200000000001E-2</v>
       </c>
       <c r="S27" s="10">
@@ -9038,10 +9192,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f>1-J28</f>
+        <f t="shared" si="0"/>
         <v>0.66700000000000004</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <f>AVERAGE(A28:A30)</f>
         <v>0.66533333333333333</v>
       </c>
@@ -9058,15 +9212,15 @@
         <v>16.185860000000002</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2296667</v>
       </c>
       <c r="H28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6185860000000003E-2</v>
       </c>
-      <c r="I28" s="16">
-        <f t="shared" si="1"/>
+      <c r="I28" s="14">
+        <f t="shared" si="2"/>
         <v>0.33466666666666667</v>
       </c>
       <c r="J28" s="8">
@@ -9091,11 +9245,11 @@
         <v>9.7704999999999997E-3</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41251670000000001</v>
       </c>
       <c r="R28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9075510000000002E-2</v>
       </c>
       <c r="S28" s="10">
@@ -9107,10 +9261,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>1-J29</f>
+        <f t="shared" si="0"/>
         <v>0.66500000000000004</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <f>AVERAGE(A28:A30)</f>
         <v>0.66533333333333333</v>
       </c>
@@ -9127,15 +9281,15 @@
         <v>7.6864999999999997</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20008330000000002</v>
       </c>
       <c r="H29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6864999999999998E-3</v>
       </c>
-      <c r="I29" s="16">
-        <f t="shared" si="1"/>
+      <c r="I29" s="14">
+        <f t="shared" si="2"/>
         <v>0.33466666666666667</v>
       </c>
       <c r="J29" s="8">
@@ -9160,11 +9314,11 @@
         <v>4.8891000000000004E-3</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38004669999999996</v>
       </c>
       <c r="R29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.460086E-2</v>
       </c>
       <c r="S29" s="10">
@@ -9176,10 +9330,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f>1-J30</f>
+        <f t="shared" si="0"/>
         <v>0.66399999999999992</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <f>AVERAGE(A28:A30)</f>
         <v>0.66533333333333333</v>
       </c>
@@ -9196,15 +9350,15 @@
         <v>5.4142340000000004</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26580500000000001</v>
       </c>
       <c r="H30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4142340000000004E-3</v>
       </c>
-      <c r="I30" s="16">
-        <f t="shared" si="1"/>
+      <c r="I30" s="14">
+        <f t="shared" si="2"/>
         <v>0.33466666666666667</v>
       </c>
       <c r="J30" s="8">
@@ -9229,11 +9383,11 @@
         <v>3.2041000000000001E-3</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46952749999999999</v>
       </c>
       <c r="R30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5659040000000001E-3</v>
       </c>
       <c r="S30" s="10">
@@ -9245,10 +9399,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f>1-J31</f>
+        <f t="shared" si="0"/>
         <v>0.69700000000000006</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <f>AVERAGE(A31:A33)</f>
         <v>0.69466666666666665</v>
       </c>
@@ -9265,15 +9419,15 @@
         <v>11.20294</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2210667</v>
       </c>
       <c r="H31" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.120294E-2</v>
       </c>
-      <c r="I31" s="16">
-        <f t="shared" si="1"/>
+      <c r="I31" s="14">
+        <f t="shared" si="2"/>
         <v>0.30533333333333335</v>
       </c>
       <c r="J31" s="8">
@@ -9298,11 +9452,11 @@
         <v>6.7698999999999997E-3</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43664999999999998</v>
       </c>
       <c r="R31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2128109999999999E-2</v>
       </c>
       <c r="S31" s="10">
@@ -9314,10 +9468,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f>1-J32</f>
+        <f t="shared" si="0"/>
         <v>0.69300000000000006</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <f>AVERAGE(A31:A33)</f>
         <v>0.69466666666666665</v>
       </c>
@@ -9334,15 +9488,15 @@
         <v>12.895</v>
       </c>
       <c r="G32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.226855</v>
       </c>
       <c r="H32" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2895E-2</v>
       </c>
-      <c r="I32" s="16">
-        <f t="shared" si="1"/>
+      <c r="I32" s="14">
+        <f t="shared" si="2"/>
         <v>0.30533333333333335</v>
       </c>
       <c r="J32" s="8">
@@ -9367,11 +9521,11 @@
         <v>7.6550000000000003E-3</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.43437999999999999</v>
       </c>
       <c r="R32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.469E-2</v>
       </c>
       <c r="S32" s="10">
@@ -9383,10 +9537,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f>1-J33</f>
+        <f t="shared" si="0"/>
         <v>0.69399999999999995</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <f>AVERAGE(A31:A33)</f>
         <v>0.69466666666666665</v>
       </c>
@@ -9403,15 +9557,15 @@
         <v>23.954350000000002</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21135000000000001</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3954350000000003E-2</v>
       </c>
-      <c r="I33" s="16">
-        <f t="shared" si="1"/>
+      <c r="I33" s="14">
+        <f t="shared" si="2"/>
         <v>0.30533333333333335</v>
       </c>
       <c r="J33" s="8">
@@ -9436,11 +9590,11 @@
         <v>1.45474E-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.41808600000000001</v>
       </c>
       <c r="R33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0447150000000001E-2</v>
       </c>
       <c r="S33" s="10">
@@ -9452,10 +9606,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f>1-J34</f>
+        <f t="shared" si="0"/>
         <v>0.84299999999999997</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <f>AVERAGE(A34:A36)</f>
         <v>0.83866666666666667</v>
       </c>
@@ -9472,15 +9626,15 @@
         <v>23.793759999999999</v>
       </c>
       <c r="G34" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14312799999999998</v>
       </c>
       <c r="H34" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3793760000000001E-2</v>
       </c>
-      <c r="I34" s="16">
-        <f t="shared" si="1"/>
+      <c r="I34" s="14">
+        <f t="shared" si="2"/>
         <v>0.16133333333333333</v>
       </c>
       <c r="J34" s="8">
@@ -9505,11 +9659,11 @@
         <v>1.16977E-2</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.54324800000000006</v>
       </c>
       <c r="R34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.031256E-2</v>
       </c>
       <c r="S34" s="10">
@@ -9521,10 +9675,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f>1-J35</f>
+        <f t="shared" si="0"/>
         <v>0.83499999999999996</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <f>AVERAGE(A34:A36)</f>
         <v>0.83866666666666667</v>
       </c>
@@ -9541,15 +9695,15 @@
         <v>22.972290000000001</v>
       </c>
       <c r="G35" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1179487</v>
       </c>
       <c r="H35" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2972290000000003E-2</v>
       </c>
-      <c r="I35" s="16">
-        <f t="shared" si="1"/>
+      <c r="I35" s="14">
+        <f t="shared" si="2"/>
         <v>0.16133333333333333</v>
       </c>
       <c r="J35" s="8">
@@ -9574,11 +9728,11 @@
         <v>1.4992699999999999E-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.46651670000000001</v>
       </c>
       <c r="R35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0866200000000008E-2</v>
       </c>
       <c r="S35" s="10">
@@ -9590,10 +9744,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f>1-J36</f>
+        <f t="shared" si="0"/>
         <v>0.83799999999999997</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="14">
         <f>AVERAGE(A34:A36)</f>
         <v>0.83866666666666667</v>
       </c>
@@ -9610,15 +9764,15 @@
         <v>14.393219999999999</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1116545</v>
       </c>
       <c r="H36" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.439322E-2</v>
       </c>
-      <c r="I36" s="16">
-        <f t="shared" si="1"/>
+      <c r="I36" s="14">
+        <f t="shared" si="2"/>
         <v>0.16133333333333333</v>
       </c>
       <c r="J36" s="8">
@@ -9643,11 +9797,11 @@
         <v>1.5706990000000001E-2</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44734249999999998</v>
       </c>
       <c r="R36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.6593159999999998E-2</v>
       </c>
       <c r="S36" s="10">
@@ -9658,18 +9812,18 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I37" s="16">
-        <f t="shared" si="1"/>
+      <c r="I37" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R37" s="10">
         <v>0.82272727272727275</v>
       </c>
@@ -9678,18 +9832,18 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I38" s="16">
-        <f t="shared" si="1"/>
+      <c r="I38" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R38" s="10">
         <v>0.82424242424242422</v>
       </c>
@@ -9698,18 +9852,18 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I39" s="16">
-        <f t="shared" si="1"/>
+      <c r="I39" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R39" s="10">
         <v>0.84999999999999987</v>
       </c>
@@ -9718,18 +9872,18 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I40" s="16">
-        <f t="shared" si="1"/>
+      <c r="I40" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R40" s="10">
         <v>0.88181818181818183</v>
       </c>
@@ -9738,18 +9892,18 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I41" s="16">
-        <f t="shared" si="1"/>
+      <c r="I41" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R41" s="10">
         <v>0.90303030303030296</v>
       </c>
@@ -9758,18 +9912,18 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I42" s="16">
-        <f t="shared" si="1"/>
+      <c r="I42" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R42" s="10">
         <v>0.97878787878787865</v>
       </c>
@@ -9778,18 +9932,18 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I43" s="16">
-        <f t="shared" si="1"/>
+      <c r="I43" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R43" s="10">
         <v>0.91363636363636369</v>
       </c>
@@ -9798,18 +9952,18 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I44" s="16">
-        <f t="shared" si="1"/>
+      <c r="I44" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R44" s="10">
         <v>0.95</v>
       </c>
@@ -9818,18 +9972,18 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I45" s="16">
-        <f t="shared" si="1"/>
+      <c r="I45" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q45">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R45" s="10">
         <v>0.99545454545454548</v>
       </c>
@@ -9838,18 +9992,18 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I46" s="16">
-        <f t="shared" si="1"/>
+      <c r="I46" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q46">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R46" s="10">
         <v>0.99090909090909085</v>
       </c>
@@ -9858,18 +10012,18 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I47" s="16">
-        <f t="shared" si="1"/>
+      <c r="I47" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R47" s="10">
         <v>1.009090909090909</v>
       </c>
@@ -9878,18 +10032,18 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I48" s="16">
-        <f t="shared" si="1"/>
+      <c r="I48" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q48">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R48" s="10">
         <v>1.009090909090909</v>
       </c>
@@ -9898,18 +10052,18 @@
       </c>
     </row>
     <row r="49" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I49" s="16">
-        <f t="shared" si="1"/>
+      <c r="I49" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R49" s="10">
         <v>0.9939393939393939</v>
       </c>
@@ -9918,18 +10072,18 @@
       </c>
     </row>
     <row r="50" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I50" s="16">
-        <f t="shared" si="1"/>
+      <c r="I50" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R50" s="10">
         <v>0.95909090909090911</v>
       </c>
@@ -9938,18 +10092,18 @@
       </c>
     </row>
     <row r="51" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I51" s="16">
-        <f t="shared" si="1"/>
+      <c r="I51" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R51" s="10">
         <v>1.0060606060606061</v>
       </c>
@@ -9958,18 +10112,18 @@
       </c>
     </row>
     <row r="52" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I52" s="16">
-        <f t="shared" si="1"/>
+      <c r="I52" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q52">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R52" s="10">
         <v>0.96363636363636351</v>
       </c>
@@ -9978,18 +10132,18 @@
       </c>
     </row>
     <row r="53" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I53" s="16">
-        <f t="shared" si="1"/>
+      <c r="I53" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P53">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R53" s="10">
         <v>1.0060606060606061</v>
       </c>
@@ -9998,18 +10152,18 @@
       </c>
     </row>
     <row r="54" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I54" s="16">
-        <f t="shared" si="1"/>
+      <c r="I54" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R54" s="10">
         <v>0.97575757575757571</v>
       </c>
@@ -10018,18 +10172,18 @@
       </c>
     </row>
     <row r="55" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I55" s="16">
-        <f t="shared" si="1"/>
+      <c r="I55" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R55" s="10">
         <v>1.0030303030303029</v>
       </c>
@@ -10038,18 +10192,18 @@
       </c>
     </row>
     <row r="56" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I56" s="16">
-        <f t="shared" si="1"/>
+      <c r="I56" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q56">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R56" s="10">
         <v>0.97727272727272729</v>
       </c>
@@ -10058,18 +10212,18 @@
       </c>
     </row>
     <row r="57" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I57" s="16">
-        <f t="shared" si="1"/>
+      <c r="I57" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R57" s="10">
         <v>1.0121212121212122</v>
       </c>
@@ -10078,18 +10232,18 @@
       </c>
     </row>
     <row r="58" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I58" s="16">
-        <f t="shared" si="1"/>
+      <c r="I58" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P58">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="R58" s="10">
         <v>1.0030303030303029</v>
       </c>
@@ -10098,16 +10252,16 @@
       </c>
     </row>
     <row r="59" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="I59" s="16">
-        <f t="shared" si="1"/>
+      <c r="I59" s="14">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R59" s="10">
